--- a/Input/测试表格.xlsx
+++ b/Input/测试表格.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="t_test" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>表ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -59,13 +59,25 @@
   </si>
   <si>
     <t>value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桥接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lang</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -114,6 +126,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -161,7 +176,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -196,7 +211,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -405,20 +420,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -428,8 +443,11 @@
       <c r="D2" t="s">
         <v>8</v>
       </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -439,8 +457,11 @@
       <c r="D3" t="s">
         <v>10</v>
       </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -450,8 +471,11 @@
       <c r="D4" t="s">
         <v>9</v>
       </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>1</v>
       </c>
@@ -461,8 +485,11 @@
       <c r="D5">
         <v>5</v>
       </c>
+      <c r="E5">
+        <v>500</v>
+      </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>2</v>
       </c>
@@ -471,6 +498,9 @@
       </c>
       <c r="D6">
         <v>6</v>
+      </c>
+      <c r="E6">
+        <v>600</v>
       </c>
     </row>
   </sheetData>
@@ -486,7 +516,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -499,7 +529,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
